--- a/Misc/Excel/AICfg.xlsx
+++ b/Misc/Excel/AICfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>${name}</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1120,8 +1123,15 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>

--- a/Misc/Excel/AICfg.xlsx
+++ b/Misc/Excel/AICfg.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>${name}</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>[2,4]</t>
+  </si>
+  <si>
+    <t>[2,5]</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1134,8 +1137,15 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2"/>
